--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -29,9 +29,6 @@
     <t>BOURL</t>
   </si>
   <si>
-    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>ofbizURL</t>
   </si>
   <si>
@@ -41,34 +38,37 @@
     <t>CCURL</t>
   </si>
   <si>
-    <t>https://sandbox.cabiclio.com/cabicentral/control/main</t>
-  </si>
-  <si>
     <t>CWURL</t>
   </si>
   <si>
-    <t>https://sandbox.cabiclio.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>RSURL</t>
   </si>
   <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
     <t>vhostTarget</t>
   </si>
   <si>
+    <t>clockServerTarget</t>
+  </si>
+  <si>
+    <t>RSTestEnvt</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest5.com/</t>
+  </si>
+  <si>
+    <t>cabitest5</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse</t>
+  </si>
+  <si>
     <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>clockServerTarget</t>
-  </si>
-  <si>
-    <t>cabisandbox</t>
-  </si>
-  <si>
-    <t>RSTestEnvt</t>
   </si>
   <si>
     <t>test21</t>
@@ -426,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -446,59 +446,59 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://test21.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42381A45-3E6C-4155-9643-E5AF6C1479D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +30,6 @@
     <t>BOURL</t>
   </si>
   <si>
-    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>ofbizURL</t>
   </si>
   <si>
@@ -53,31 +51,34 @@
     <t>RSURL</t>
   </si>
   <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
     <t>vhostTarget</t>
   </si>
   <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
     <t>clockServerTarget</t>
   </si>
   <si>
-    <t>cabisandbox</t>
-  </si>
-  <si>
     <t>RSTestEnvt</t>
   </si>
   <si>
-    <t>test21</t>
+    <t>https://mirandakate.cabitest5.com</t>
+  </si>
+  <si>
+    <t>cabitest5</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +145,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -423,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,59 +447,59 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://test21.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://test21.cliotest.com/backoffice/control/main" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://test21.cliotest.com/warehouse/control/main" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -53,15 +53,6 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest5.com/</t>
-  </si>
-  <si>
-    <t>cabitest5</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>https://test21.cliotest.com/cabicentral</t>
   </si>
   <si>
@@ -72,6 +63,15 @@
   </si>
   <si>
     <t>test21</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://testconsultant.cabisandbox.com/</t>
+  </si>
+  <si>
+    <t>cabisandbox</t>
   </si>
 </sst>
 </file>
@@ -137,11 +137,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -427,7 +430,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,39 +470,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -29,9 +29,6 @@
     <t>BOURL</t>
   </si>
   <si>
-    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>ofbizURL</t>
   </si>
   <si>
@@ -41,37 +38,40 @@
     <t>CCURL</t>
   </si>
   <si>
-    <t>https://sandbox.cabiclio.com/cabicentral/control/main</t>
-  </si>
-  <si>
     <t>CWURL</t>
   </si>
   <si>
-    <t>https://sandbox.cabiclio.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>RSURL</t>
   </si>
   <si>
+    <t>vhostTarget</t>
+  </si>
+  <si>
+    <t>clockServerTarget</t>
+  </si>
+  <si>
+    <t>RSTestEnvt</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>virtual_cabitest19</t>
+  </si>
+  <si>
     <t>https://mirandakate.cabisandbox.com</t>
   </si>
   <si>
-    <t>vhostTarget</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>clockServerTarget</t>
-  </si>
-  <si>
     <t>cabisandbox</t>
   </si>
   <si>
-    <t>RSTestEnvt</t>
-  </si>
-  <si>
-    <t>test21</t>
+    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,58 +446,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
     <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://test21.cliotest.com/warehouse/control/main"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -53,25 +53,25 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
+    <t>https://mirandakate.cabitest5.com</t>
+  </si>
+  <si>
+    <t>cabitest5</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
     <t>test21</t>
-  </si>
-  <si>
-    <t>virtual_cabitest19</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
-    <t>cabisandbox</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,28 +469,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://sandbox.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId3" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId4"/>
   </hyperlinks>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -53,25 +53,25 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
+    <t>https://mirandakate.cabitest5.com</t>
+  </si>
+  <si>
+    <t>cabitest5</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
     <t>test21</t>
-  </si>
-  <si>
-    <t>virtual_cabitest19</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
-    <t>cabisandbox</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -469,28 +469,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -59,19 +59,19 @@
     <t>cabitest5</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>test21</t>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest19</t>
+  </si>
+  <si>
+    <t>test19</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -53,25 +53,25 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest5.com</t>
-  </si>
-  <si>
-    <t>cabitest5</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
     <t>test21</t>
+  </si>
+  <si>
+    <t>virtual_cabitest19</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabisandbox.com</t>
+  </si>
+  <si>
+    <t>cabisandbox</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -469,28 +469,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>BOURL</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>test19</t>
+  </si>
+  <si>
+    <t>BSURL</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabionline.com/</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +447,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +472,11 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -491,6 +500,9 @@
       </c>
       <c r="H2" t="s">
         <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -499,6 +511,7 @@
     <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId3" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>BOURL</t>
   </si>
@@ -53,25 +53,31 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
-    <t>test21</t>
+    <t>https://mirandakate.cabitest5.com</t>
+  </si>
+  <si>
+    <t>cabitest5</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse/control/main</t>
   </si>
   <si>
     <t>virtual_cabitest19</t>
   </si>
   <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
-    <t>cabisandbox</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>BSURL</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabionline.com/</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +447,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,31 +472,37 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,6 +59,12 @@
     <t>cabitest5</t>
   </si>
   <si>
+    <t>BSURL</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabionline.com/</t>
+  </si>
+  <si>
     <t>https://test19.cliotest.com/backoffice/control/main</t>
   </si>
   <si>
@@ -72,12 +78,6 @@
   </si>
   <si>
     <t>test19</t>
-  </si>
-  <si>
-    <t>BSURL</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabionline.com/</t>
   </si>
 </sst>
 </file>
@@ -473,36 +473,36 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,6 +59,12 @@
     <t>cabitest5</t>
   </si>
   <si>
+    <t>BSURL</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabionline.com/</t>
+  </si>
+  <si>
     <t>https://test19.cliotest.com/backoffice/control/main</t>
   </si>
   <si>
@@ -72,12 +78,6 @@
   </si>
   <si>
     <t>test19</t>
-  </si>
-  <si>
-    <t>BSURL</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabionline.com/</t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,44 +473,44 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
-    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E493A7E3-C2A9-4C4A-A9AC-8C0C95B330AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>BOURL</t>
   </si>
@@ -53,37 +54,31 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest5.com</t>
-  </si>
-  <si>
-    <t>cabitest5</t>
-  </si>
-  <si>
-    <t>BSURL</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabionline.com/</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest19</t>
-  </si>
-  <si>
-    <t>test19</t>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabisandbox.com/</t>
+  </si>
+  <si>
+    <t>cabisandbox</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/cabicentral/control/main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,14 +138,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -429,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +441,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,46 +466,41 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{A3286E5D-C0F6-42CC-BC65-895D35C12809}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{ED6E9A2B-A709-4E82-8A5F-0C1F1B081C06}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{F05B76E4-A544-4145-A982-35015544F188}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>BOURL</t>
   </si>
@@ -53,31 +53,25 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest5.com</t>
-  </si>
-  <si>
-    <t>cabitest5</t>
-  </si>
-  <si>
-    <t>BSURL</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabionline.com/</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest19</t>
-  </si>
-  <si>
-    <t>test19</t>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>sandbox</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabisandbox.com</t>
+  </si>
+  <si>
+    <t>cabisandbox</t>
   </si>
 </sst>
 </file>
@@ -430,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +441,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,45 +466,39 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
+    <hyperlink ref="E2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>BOURL</t>
   </si>
@@ -53,25 +53,31 @@
     <t>RSTestEnvt</t>
   </si>
   <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>sandbox</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
-    <t>cabisandbox</t>
+    <t>https://mirandakate.cabitest5.com</t>
+  </si>
+  <si>
+    <t>cabitest5</t>
+  </si>
+  <si>
+    <t>BSURL</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabionline.com/</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest19</t>
+  </si>
+  <si>
+    <t>test19</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +447,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,39 +472,45 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId3" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
-    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test19.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest19</t>
-  </si>
-  <si>
-    <t>test19</t>
+    <t>https://test4ca.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4ca.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4ca.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4ca</t>
+  </si>
+  <si>
+    <t>test4ca</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B6F80-7ADD-4C5B-9099-482F431BC526}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,25 +66,25 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test19.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest19</t>
-  </si>
-  <si>
-    <t>test19</t>
+    <t>https://test4ca.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4ca.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4ca.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4ca</t>
+  </si>
+  <si>
+    <t>test4ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +151,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -429,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -507,10 +508,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B6F80-7ADD-4C5B-9099-482F431BC526}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,25 +65,25 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test4ca.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test4ca.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test4ca.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest4ca</t>
-  </si>
-  <si>
-    <t>test4ca</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +150,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -430,7 +429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -508,10 +507,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test4.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test4.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest4</t>
-  </si>
-  <si>
-    <t>test4</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test4uk.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4uk.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4uk.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4uk</t>
+  </si>
+  <si>
+    <t>test4uk</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test4uk.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test4uk.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test4uk.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest4uk</t>
-  </si>
-  <si>
-    <t>test4uk</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
+    <t>test21</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>test21</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
+    <t>test21</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,19 +65,19 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>test21</t>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,13 +478,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>BOURL</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>test18</t>
+  </si>
+  <si>
+    <t>WMURL</t>
+  </si>
+  <si>
+    <t>http://webmail.cabiclio.com/</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +451,11 @@
     <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +483,11 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -503,6 +514,9 @@
       </c>
       <c r="I2" t="s">
         <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -510,7 +524,8 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -65,6 +65,12 @@
     <t>https://mirandakate.cabionline.com/</t>
   </si>
   <si>
+    <t>WMURL</t>
+  </si>
+  <si>
+    <t>http://webmail.cabiclio.com/</t>
+  </si>
+  <si>
     <t>https://test18.cliotest.com/backoffice/control/main</t>
   </si>
   <si>
@@ -78,12 +84,6 @@
   </si>
   <si>
     <t>test18</t>
-  </si>
-  <si>
-    <t>WMURL</t>
-  </si>
-  <si>
-    <t>http://webmail.cabiclio.com/</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,30 +484,30 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -516,7 +516,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest19</t>
+  </si>
+  <si>
+    <t>test19</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
+    <t>test21</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>test21</t>
+    <t>https://test17.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest17</t>
+  </si>
+  <si>
+    <t>test17</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test17.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test17.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test17.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest17</t>
-  </si>
-  <si>
-    <t>test17</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,10 +521,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>BOURL</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>test18</t>
+  </si>
+  <si>
+    <t>WMEnvt</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +458,7 @@
     <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +489,11 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -517,6 +523,9 @@
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,22 +71,22 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
-  </si>
-  <si>
     <t>WMEnvt</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,30 +490,30 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -525,7 +525,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test17.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test17.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test17.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest17</t>
-  </si>
-  <si>
-    <t>test17</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -521,10 +521,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test4uk.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4uk.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4uk.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4uk</t>
+  </si>
+  <si>
+    <t>test4uk</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test4.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test4.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest4</t>
-  </si>
-  <si>
-    <t>test4</t>
+    <t>https://test4ca.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4ca.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4ca.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4ca</t>
+  </si>
+  <si>
+    <t>test4ca</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test4ca.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test4ca.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test4ca.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest4ca</t>
-  </si>
-  <si>
-    <t>test4ca</t>
+    <t>https://test4.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest4</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test4.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest4</t>
-  </si>
-  <si>
-    <t>test4</t>
+    <t>https://test9.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test9.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test9.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest9</t>
+  </si>
+  <si>
+    <t>test9</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test9.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test9.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test9.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest9</t>
-  </si>
-  <si>
-    <t>test9</t>
+    <t>https://test3.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test3.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test3.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest3</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test4ca.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test4ca.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test4ca.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest4ca</t>
-  </si>
-  <si>
-    <t>test4ca</t>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest19</t>
+  </si>
+  <si>
+    <t>test19</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test4ca.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test3.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test3.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test3.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest3</t>
-  </si>
-  <si>
-    <t>test3</t>
+    <t>https://test9.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test9.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test9.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest9</t>
+  </si>
+  <si>
+    <t>test9</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FCE4B4-DF04-4D40-BA8D-AAE7A4DF6DA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +151,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -429,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -507,10 +508,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://sandbox.cabiclio.com/backoffice/control/main" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>BOURL</t>
   </si>
@@ -71,19 +71,22 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test9.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test9.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test9.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest9</t>
-  </si>
-  <si>
-    <t>test9</t>
+    <t>WMEnvt</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +458,7 @@
     <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,28 +489,31 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -517,6 +523,9 @@
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +533,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test3.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test3.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test3.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest3</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -524,7 +524,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>BOURL</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>test18</t>
+  </si>
+  <si>
+    <t>WMEnvt</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +458,7 @@
     <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +489,11 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -517,6 +523,9 @@
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test3.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test3.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test3.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest3</t>
-  </si>
-  <si>
-    <t>test3</t>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest14</t>
+  </si>
+  <si>
+    <t>test14</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test3.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,22 +71,22 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
-  </si>
-  <si>
     <t>WMEnvt</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest14</t>
+  </si>
+  <si>
+    <t>test14</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,30 +490,30 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -525,7 +525,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
     <hyperlink ref="C2" r:id="rId1" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="D2" r:id="rId2" display="https://sandbox.cabiclio.com/warehouse/control/main"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test18.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest14</t>
-  </si>
-  <si>
-    <t>test14</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest14</t>
+  </si>
+  <si>
+    <t>test14</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest14</t>
+  </si>
+  <si>
+    <t>test14</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>BOURL</t>
   </si>
@@ -71,19 +71,22 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest14</t>
-  </si>
-  <si>
-    <t>test14</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>WMEnvt</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +458,7 @@
     <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +489,11 @@
       <c r="J1" t="s">
         <v>13</v>
       </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -517,6 +523,9 @@
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,19 +71,19 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest14</t>
-  </si>
-  <si>
-    <t>test14</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -71,22 +71,22 @@
     <t>http://webmail.cabiclio.com/</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
-  </si>
-  <si>
     <t>WMEnvt</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
+    <t>test21</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,30 +490,30 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -525,7 +525,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -74,19 +74,19 @@
     <t>WMEnvt</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>test21</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -74,19 +74,19 @@
     <t>WMEnvt</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest21</t>
-  </si>
-  <si>
-    <t>test21</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -74,19 +74,19 @@
     <t>WMEnvt</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test7.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test7.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test7.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest7</t>
+  </si>
+  <si>
+    <t>test7</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -74,19 +74,19 @@
     <t>WMEnvt</t>
   </si>
   <si>
-    <t>https://test7.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test7.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test7.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest7</t>
-  </si>
-  <si>
-    <t>test7</t>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest14</t>
+  </si>
+  <si>
+    <t>test14</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -74,19 +74,19 @@
     <t>WMEnvt</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test7.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test7.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test7.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest7</t>
+  </si>
+  <si>
+    <t>test7</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -74,19 +74,19 @@
     <t>WMEnvt</t>
   </si>
   <si>
-    <t>https://test7.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test7.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test7.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest7</t>
-  </si>
-  <si>
-    <t>test7</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -74,19 +74,19 @@
     <t>WMEnvt</t>
   </si>
   <si>
-    <t>https://test7.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test7.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test7.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest7</t>
-  </si>
-  <si>
-    <t>test7</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest18</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KatalonProjects/envtData.xlsx
+++ b/KatalonProjects/envtData.xlsx
@@ -74,19 +74,19 @@
     <t>WMEnvt</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>virtual_cabitest18</t>
-  </si>
-  <si>
-    <t>test18</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>virtual_cabitest21</t>
+  </si>
+  <si>
+    <t>test21</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
